--- a/Model/BayesLSTM/Multivariate/result/Service/SGP.xlsx
+++ b/Model/BayesLSTM/Multivariate/result/Service/SGP.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>1988</v>
       </c>
       <c r="B2" t="n">
-        <v>64.07560729980469</v>
+        <v>62.41284942626953</v>
       </c>
       <c r="C2" t="n">
-        <v>62.36155319213867</v>
+        <v>60.0709114074707</v>
       </c>
       <c r="D2" t="n">
-        <v>65.78966522216797</v>
+        <v>64.75478363037109</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>1989</v>
       </c>
       <c r="B3" t="n">
-        <v>64.01873016357422</v>
+        <v>61.42115020751953</v>
       </c>
       <c r="C3" t="n">
-        <v>61.47112655639648</v>
+        <v>58.27470397949219</v>
       </c>
       <c r="D3" t="n">
-        <v>66.56632995605469</v>
+        <v>64.56759643554688</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>1990</v>
       </c>
       <c r="B4" t="n">
-        <v>64.03289794921875</v>
+        <v>61.56829833984375</v>
       </c>
       <c r="C4" t="n">
-        <v>62.05577087402344</v>
+        <v>58.9261360168457</v>
       </c>
       <c r="D4" t="n">
-        <v>66.01002502441406</v>
+        <v>64.21046447753906</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>1991</v>
       </c>
       <c r="B5" t="n">
-        <v>63.65711212158203</v>
+        <v>62.20932006835938</v>
       </c>
       <c r="C5" t="n">
-        <v>62.39356994628906</v>
+        <v>59.22877502441406</v>
       </c>
       <c r="D5" t="n">
-        <v>64.920654296875</v>
+        <v>65.18986511230469</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>1992</v>
       </c>
       <c r="B6" t="n">
-        <v>63.36569976806641</v>
+        <v>62.58663940429688</v>
       </c>
       <c r="C6" t="n">
-        <v>61.63862609863281</v>
+        <v>58.03239440917969</v>
       </c>
       <c r="D6" t="n">
-        <v>65.0927734375</v>
+        <v>67.14088439941406</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>1993</v>
       </c>
       <c r="B7" t="n">
-        <v>63.319091796875</v>
+        <v>61.15095901489258</v>
       </c>
       <c r="C7" t="n">
-        <v>60.82566070556641</v>
+        <v>58.65436935424805</v>
       </c>
       <c r="D7" t="n">
-        <v>65.81252288818359</v>
+        <v>63.64754867553711</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>1994</v>
       </c>
       <c r="B8" t="n">
-        <v>63.33967971801758</v>
+        <v>61.36526489257812</v>
       </c>
       <c r="C8" t="n">
-        <v>60.51089477539062</v>
+        <v>59.09726333618164</v>
       </c>
       <c r="D8" t="n">
-        <v>66.16846466064453</v>
+        <v>63.63326644897461</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>1995</v>
       </c>
       <c r="B9" t="n">
-        <v>63.6705436706543</v>
+        <v>61.24136352539062</v>
       </c>
       <c r="C9" t="n">
-        <v>62.05586242675781</v>
+        <v>58.17100524902344</v>
       </c>
       <c r="D9" t="n">
-        <v>65.28522491455078</v>
+        <v>64.31172180175781</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>1996</v>
       </c>
       <c r="B10" t="n">
-        <v>63.43956756591797</v>
+        <v>62.36391448974609</v>
       </c>
       <c r="C10" t="n">
-        <v>61.95420074462891</v>
+        <v>58.66485214233398</v>
       </c>
       <c r="D10" t="n">
-        <v>64.92493438720703</v>
+        <v>66.06297302246094</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>1997</v>
       </c>
       <c r="B11" t="n">
-        <v>63.752197265625</v>
+        <v>61.50869750976562</v>
       </c>
       <c r="C11" t="n">
-        <v>62.12753677368164</v>
+        <v>59.42330932617188</v>
       </c>
       <c r="D11" t="n">
-        <v>65.37686157226562</v>
+        <v>63.59408569335938</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>1998</v>
       </c>
       <c r="B12" t="n">
-        <v>63.68880081176758</v>
+        <v>61.49472045898438</v>
       </c>
       <c r="C12" t="n">
-        <v>61.58456420898438</v>
+        <v>59.32381057739258</v>
       </c>
       <c r="D12" t="n">
-        <v>65.79303741455078</v>
+        <v>63.66563034057617</v>
       </c>
     </row>
     <row r="13">
@@ -617,13 +617,13 @@
         <v>1999</v>
       </c>
       <c r="B13" t="n">
-        <v>64.13797760009766</v>
+        <v>61.58728790283203</v>
       </c>
       <c r="C13" t="n">
-        <v>62.18046188354492</v>
+        <v>58.63076782226562</v>
       </c>
       <c r="D13" t="n">
-        <v>66.09548950195312</v>
+        <v>64.54380798339844</v>
       </c>
     </row>
     <row r="14">
@@ -631,13 +631,13 @@
         <v>2000</v>
       </c>
       <c r="B14" t="n">
-        <v>63.0528678894043</v>
+        <v>61.79975509643555</v>
       </c>
       <c r="C14" t="n">
-        <v>60.90712356567383</v>
+        <v>57.80768966674805</v>
       </c>
       <c r="D14" t="n">
-        <v>65.19861602783203</v>
+        <v>65.79181671142578</v>
       </c>
     </row>
     <row r="15">
@@ -645,13 +645,13 @@
         <v>2001</v>
       </c>
       <c r="B15" t="n">
-        <v>63.76710891723633</v>
+        <v>62.59075927734375</v>
       </c>
       <c r="C15" t="n">
-        <v>61.53083038330078</v>
+        <v>58.81193923950195</v>
       </c>
       <c r="D15" t="n">
-        <v>66.00338745117188</v>
+        <v>66.36957550048828</v>
       </c>
     </row>
     <row r="16">
@@ -659,13 +659,13 @@
         <v>2002</v>
       </c>
       <c r="B16" t="n">
-        <v>63.44266510009766</v>
+        <v>62.252197265625</v>
       </c>
       <c r="C16" t="n">
-        <v>61.91932678222656</v>
+        <v>58.95489883422852</v>
       </c>
       <c r="D16" t="n">
-        <v>64.96600341796875</v>
+        <v>65.54949188232422</v>
       </c>
     </row>
     <row r="17">
@@ -673,13 +673,13 @@
         <v>2003</v>
       </c>
       <c r="B17" t="n">
-        <v>63.6346321105957</v>
+        <v>62.37228393554688</v>
       </c>
       <c r="C17" t="n">
-        <v>62.27077865600586</v>
+        <v>58.92051696777344</v>
       </c>
       <c r="D17" t="n">
-        <v>64.99848175048828</v>
+        <v>65.82405090332031</v>
       </c>
     </row>
     <row r="18">
@@ -687,13 +687,13 @@
         <v>2004</v>
       </c>
       <c r="B18" t="n">
-        <v>63.9337043762207</v>
+        <v>61.62324905395508</v>
       </c>
       <c r="C18" t="n">
-        <v>60.26863098144531</v>
+        <v>58.17533111572266</v>
       </c>
       <c r="D18" t="n">
-        <v>67.59877777099609</v>
+        <v>65.0711669921875</v>
       </c>
     </row>
     <row r="19">
@@ -701,13 +701,13 @@
         <v>2005</v>
       </c>
       <c r="B19" t="n">
-        <v>63.59780120849609</v>
+        <v>61.94881439208984</v>
       </c>
       <c r="C19" t="n">
-        <v>62.23507308959961</v>
+        <v>59.89714813232422</v>
       </c>
       <c r="D19" t="n">
-        <v>64.96053314208984</v>
+        <v>64.00048065185547</v>
       </c>
     </row>
     <row r="20">
@@ -715,13 +715,13 @@
         <v>2006</v>
       </c>
       <c r="B20" t="n">
-        <v>63.54670333862305</v>
+        <v>62.34943389892578</v>
       </c>
       <c r="C20" t="n">
-        <v>61.87206268310547</v>
+        <v>57.62298583984375</v>
       </c>
       <c r="D20" t="n">
-        <v>65.22134399414062</v>
+        <v>67.07588195800781</v>
       </c>
     </row>
     <row r="21">
@@ -729,13 +729,13 @@
         <v>2007</v>
       </c>
       <c r="B21" t="n">
-        <v>63.32966232299805</v>
+        <v>61.70128631591797</v>
       </c>
       <c r="C21" t="n">
-        <v>60.99011993408203</v>
+        <v>59.44537734985352</v>
       </c>
       <c r="D21" t="n">
-        <v>65.66920471191406</v>
+        <v>63.95719528198242</v>
       </c>
     </row>
     <row r="22">
@@ -743,13 +743,13 @@
         <v>2008</v>
       </c>
       <c r="B22" t="n">
-        <v>64.08303070068359</v>
+        <v>61.46843338012695</v>
       </c>
       <c r="C22" t="n">
-        <v>61.5922966003418</v>
+        <v>58.86311721801758</v>
       </c>
       <c r="D22" t="n">
-        <v>66.57376861572266</v>
+        <v>64.07375335693359</v>
       </c>
     </row>
     <row r="23">
@@ -757,13 +757,13 @@
         <v>2009</v>
       </c>
       <c r="B23" t="n">
-        <v>63.34929275512695</v>
+        <v>60.77892303466797</v>
       </c>
       <c r="C23" t="n">
-        <v>60.86164855957031</v>
+        <v>57.35404205322266</v>
       </c>
       <c r="D23" t="n">
-        <v>65.83693695068359</v>
+        <v>64.20380401611328</v>
       </c>
     </row>
     <row r="24">
@@ -771,13 +771,13 @@
         <v>2010</v>
       </c>
       <c r="B24" t="n">
-        <v>63.15724945068359</v>
+        <v>62.19285202026367</v>
       </c>
       <c r="C24" t="n">
-        <v>61.81705856323242</v>
+        <v>59.25698852539062</v>
       </c>
       <c r="D24" t="n">
-        <v>64.49744415283203</v>
+        <v>65.12871551513672</v>
       </c>
     </row>
     <row r="25">
@@ -785,13 +785,13 @@
         <v>2011</v>
       </c>
       <c r="B25" t="n">
-        <v>63.23942947387695</v>
+        <v>62.1962776184082</v>
       </c>
       <c r="C25" t="n">
-        <v>61.41357803344727</v>
+        <v>59.69253921508789</v>
       </c>
       <c r="D25" t="n">
-        <v>65.06527709960938</v>
+        <v>64.70001983642578</v>
       </c>
     </row>
     <row r="26">
@@ -799,13 +799,13 @@
         <v>2012</v>
       </c>
       <c r="B26" t="n">
-        <v>63.41394805908203</v>
+        <v>61.37791061401367</v>
       </c>
       <c r="C26" t="n">
-        <v>61.4090690612793</v>
+        <v>58.34901428222656</v>
       </c>
       <c r="D26" t="n">
-        <v>65.4188232421875</v>
+        <v>64.40680694580078</v>
       </c>
     </row>
     <row r="27">
@@ -813,13 +813,13 @@
         <v>2013</v>
       </c>
       <c r="B27" t="n">
-        <v>63.2455940246582</v>
+        <v>61.8690071105957</v>
       </c>
       <c r="C27" t="n">
-        <v>61.47998046875</v>
+        <v>58.52053070068359</v>
       </c>
       <c r="D27" t="n">
-        <v>65.01120758056641</v>
+        <v>65.21748352050781</v>
       </c>
     </row>
     <row r="28">
@@ -827,13 +827,13 @@
         <v>2014</v>
       </c>
       <c r="B28" t="n">
-        <v>63.774658203125</v>
+        <v>60.85315704345703</v>
       </c>
       <c r="C28" t="n">
-        <v>60.94392395019531</v>
+        <v>56.27008056640625</v>
       </c>
       <c r="D28" t="n">
-        <v>66.60539245605469</v>
+        <v>65.43623352050781</v>
       </c>
     </row>
     <row r="29">
@@ -841,13 +841,13 @@
         <v>2015</v>
       </c>
       <c r="B29" t="n">
-        <v>63.6979866027832</v>
+        <v>61.19069290161133</v>
       </c>
       <c r="C29" t="n">
-        <v>61.11062622070312</v>
+        <v>58.85573196411133</v>
       </c>
       <c r="D29" t="n">
-        <v>66.28534698486328</v>
+        <v>63.52565383911133</v>
       </c>
     </row>
     <row r="30">
@@ -855,83 +855,13 @@
         <v>2016</v>
       </c>
       <c r="B30" t="n">
-        <v>63.56373977661133</v>
+        <v>61.9605827331543</v>
       </c>
       <c r="C30" t="n">
-        <v>61.97489547729492</v>
+        <v>58.11294174194336</v>
       </c>
       <c r="D30" t="n">
-        <v>65.15258026123047</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B31" t="n">
-        <v>64.35716247558594</v>
-      </c>
-      <c r="C31" t="n">
-        <v>61.42502212524414</v>
-      </c>
-      <c r="D31" t="n">
-        <v>67.289306640625</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B32" t="n">
-        <v>63.78435516357422</v>
-      </c>
-      <c r="C32" t="n">
-        <v>60.98046875</v>
-      </c>
-      <c r="D32" t="n">
-        <v>66.58824157714844</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B33" t="n">
-        <v>63.96186447143555</v>
-      </c>
-      <c r="C33" t="n">
-        <v>61.99165344238281</v>
-      </c>
-      <c r="D33" t="n">
-        <v>65.93207550048828</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B34" t="n">
-        <v>64.00520324707031</v>
-      </c>
-      <c r="C34" t="n">
-        <v>61.88591766357422</v>
-      </c>
-      <c r="D34" t="n">
-        <v>66.12448883056641</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B35" t="n">
-        <v>63.68628692626953</v>
-      </c>
-      <c r="C35" t="n">
-        <v>61.46087265014648</v>
-      </c>
-      <c r="D35" t="n">
-        <v>65.91169738769531</v>
+        <v>65.80821990966797</v>
       </c>
     </row>
   </sheetData>
@@ -977,72 +907,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>62.98950576782227</v>
+        <v>62.72069549560547</v>
       </c>
       <c r="C2" t="n">
-        <v>61.64139858584362</v>
+        <v>58.96043014526367</v>
       </c>
       <c r="D2" t="n">
-        <v>64.33761294980091</v>
+        <v>66.48096466064453</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>64.32498130798339</v>
+        <v>61.94675827026367</v>
       </c>
       <c r="C3" t="n">
-        <v>61.72277222235627</v>
+        <v>58.8465690612793</v>
       </c>
       <c r="D3" t="n">
-        <v>66.92719039361052</v>
+        <v>65.04694366455078</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>62.52431793212891</v>
+        <v>62.21305084228516</v>
       </c>
       <c r="C4" t="n">
-        <v>60.95207607330639</v>
+        <v>59.72016143798828</v>
       </c>
       <c r="D4" t="n">
-        <v>64.09655979095143</v>
+        <v>64.70594024658203</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>63.79220542907715</v>
+        <v>61.9229850769043</v>
       </c>
       <c r="C5" t="n">
-        <v>62.39236772921308</v>
+        <v>58.33623123168945</v>
       </c>
       <c r="D5" t="n">
-        <v>65.19204312894122</v>
+        <v>65.50973510742188</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>64.40300636291504</v>
+        <v>62.67366790771484</v>
       </c>
       <c r="C6" t="n">
-        <v>61.78955859557878</v>
+        <v>58.85651397705078</v>
       </c>
       <c r="D6" t="n">
-        <v>67.01645413025129</v>
+        <v>66.49082183837891</v>
       </c>
     </row>
   </sheetData>
@@ -1091,13 +1021,13 @@
         <v>1988</v>
       </c>
       <c r="B2" t="n">
-        <v>63.47836303710938</v>
+        <v>63.76963424682617</v>
       </c>
       <c r="C2" t="n">
-        <v>61.09720611572266</v>
+        <v>62.25152587890625</v>
       </c>
       <c r="D2" t="n">
-        <v>65.85951995849609</v>
+        <v>65.28774261474609</v>
       </c>
     </row>
     <row r="3">
@@ -1105,13 +1035,13 @@
         <v>1989</v>
       </c>
       <c r="B3" t="n">
-        <v>63.80879592895508</v>
+        <v>62.67525100708008</v>
       </c>
       <c r="C3" t="n">
-        <v>60.77115631103516</v>
+        <v>60.68101501464844</v>
       </c>
       <c r="D3" t="n">
-        <v>66.846435546875</v>
+        <v>64.66948699951172</v>
       </c>
     </row>
     <row r="4">
@@ -1119,13 +1049,13 @@
         <v>1990</v>
       </c>
       <c r="B4" t="n">
-        <v>63.79427337646484</v>
+        <v>62.56354522705078</v>
       </c>
       <c r="C4" t="n">
-        <v>61.65750885009766</v>
+        <v>61.12899780273438</v>
       </c>
       <c r="D4" t="n">
-        <v>65.93103790283203</v>
+        <v>63.99809265136719</v>
       </c>
     </row>
     <row r="5">
@@ -1133,13 +1063,13 @@
         <v>1991</v>
       </c>
       <c r="B5" t="n">
-        <v>64.13077545166016</v>
+        <v>62.77277755737305</v>
       </c>
       <c r="C5" t="n">
-        <v>62.9919319152832</v>
+        <v>61.06582641601562</v>
       </c>
       <c r="D5" t="n">
-        <v>65.26962280273438</v>
+        <v>64.47972869873047</v>
       </c>
     </row>
     <row r="6">
@@ -1147,13 +1077,13 @@
         <v>1992</v>
       </c>
       <c r="B6" t="n">
-        <v>63.94445037841797</v>
+        <v>62.81819534301758</v>
       </c>
       <c r="C6" t="n">
-        <v>61.61162948608398</v>
+        <v>60.36884689331055</v>
       </c>
       <c r="D6" t="n">
-        <v>66.27726745605469</v>
+        <v>65.26754760742188</v>
       </c>
     </row>
     <row r="7">
@@ -1161,13 +1091,13 @@
         <v>1993</v>
       </c>
       <c r="B7" t="n">
-        <v>63.51826095581055</v>
+        <v>63.11095428466797</v>
       </c>
       <c r="C7" t="n">
-        <v>61.08927154541016</v>
+        <v>60.86423110961914</v>
       </c>
       <c r="D7" t="n">
-        <v>65.94725036621094</v>
+        <v>65.35768127441406</v>
       </c>
     </row>
     <row r="8">
@@ -1175,13 +1105,13 @@
         <v>1994</v>
       </c>
       <c r="B8" t="n">
-        <v>63.11648559570312</v>
+        <v>63.1572151184082</v>
       </c>
       <c r="C8" t="n">
-        <v>60.51304626464844</v>
+        <v>60.56921768188477</v>
       </c>
       <c r="D8" t="n">
-        <v>65.71992492675781</v>
+        <v>65.74521636962891</v>
       </c>
     </row>
     <row r="9">
@@ -1189,13 +1119,13 @@
         <v>1995</v>
       </c>
       <c r="B9" t="n">
-        <v>63.66407012939453</v>
+        <v>62.90966033935547</v>
       </c>
       <c r="C9" t="n">
-        <v>61.30316543579102</v>
+        <v>60.73366928100586</v>
       </c>
       <c r="D9" t="n">
-        <v>66.02497863769531</v>
+        <v>65.08565521240234</v>
       </c>
     </row>
     <row r="10">
@@ -1203,13 +1133,13 @@
         <v>1996</v>
       </c>
       <c r="B10" t="n">
-        <v>64.00202178955078</v>
+        <v>63.13480758666992</v>
       </c>
       <c r="C10" t="n">
-        <v>60.95805358886719</v>
+        <v>60.71567153930664</v>
       </c>
       <c r="D10" t="n">
-        <v>67.04598999023438</v>
+        <v>65.55393981933594</v>
       </c>
     </row>
     <row r="11">
@@ -1217,13 +1147,13 @@
         <v>1997</v>
       </c>
       <c r="B11" t="n">
-        <v>64.25287628173828</v>
+        <v>63.1121826171875</v>
       </c>
       <c r="C11" t="n">
-        <v>61.61488342285156</v>
+        <v>60.83816146850586</v>
       </c>
       <c r="D11" t="n">
-        <v>66.890869140625</v>
+        <v>65.38620758056641</v>
       </c>
     </row>
     <row r="12">
@@ -1231,13 +1161,13 @@
         <v>1998</v>
       </c>
       <c r="B12" t="n">
-        <v>64.31928253173828</v>
+        <v>63.36083984375</v>
       </c>
       <c r="C12" t="n">
-        <v>61.33156585693359</v>
+        <v>61.48367309570312</v>
       </c>
       <c r="D12" t="n">
-        <v>67.30699920654297</v>
+        <v>65.23800659179688</v>
       </c>
     </row>
     <row r="13">
@@ -1245,13 +1175,13 @@
         <v>1999</v>
       </c>
       <c r="B13" t="n">
-        <v>63.57425689697266</v>
+        <v>62.8640022277832</v>
       </c>
       <c r="C13" t="n">
-        <v>61.33498382568359</v>
+        <v>60.98830795288086</v>
       </c>
       <c r="D13" t="n">
-        <v>65.81352996826172</v>
+        <v>64.73969268798828</v>
       </c>
     </row>
     <row r="14">
@@ -1259,13 +1189,13 @@
         <v>2000</v>
       </c>
       <c r="B14" t="n">
-        <v>64.21903228759766</v>
+        <v>63.03708648681641</v>
       </c>
       <c r="C14" t="n">
-        <v>62.48526000976562</v>
+        <v>60.88071441650391</v>
       </c>
       <c r="D14" t="n">
-        <v>65.95280456542969</v>
+        <v>65.19345855712891</v>
       </c>
     </row>
     <row r="15">
@@ -1273,13 +1203,13 @@
         <v>2001</v>
       </c>
       <c r="B15" t="n">
-        <v>63.3841667175293</v>
+        <v>63.02144241333008</v>
       </c>
       <c r="C15" t="n">
-        <v>60.22478485107422</v>
+        <v>60.69946670532227</v>
       </c>
       <c r="D15" t="n">
-        <v>66.54354858398438</v>
+        <v>65.34341430664062</v>
       </c>
     </row>
     <row r="16">
@@ -1287,13 +1217,13 @@
         <v>2002</v>
       </c>
       <c r="B16" t="n">
-        <v>63.6113395690918</v>
+        <v>63.34279251098633</v>
       </c>
       <c r="C16" t="n">
-        <v>60.52265548706055</v>
+        <v>61.40653610229492</v>
       </c>
       <c r="D16" t="n">
-        <v>66.70002746582031</v>
+        <v>65.279052734375</v>
       </c>
     </row>
     <row r="17">
@@ -1301,13 +1231,13 @@
         <v>2003</v>
       </c>
       <c r="B17" t="n">
-        <v>63.7072868347168</v>
+        <v>62.50759887695312</v>
       </c>
       <c r="C17" t="n">
-        <v>60.65767669677734</v>
+        <v>60.46305847167969</v>
       </c>
       <c r="D17" t="n">
-        <v>66.75689697265625</v>
+        <v>64.55213928222656</v>
       </c>
     </row>
     <row r="18">
@@ -1315,13 +1245,13 @@
         <v>2004</v>
       </c>
       <c r="B18" t="n">
-        <v>63.36027908325195</v>
+        <v>62.43230438232422</v>
       </c>
       <c r="C18" t="n">
-        <v>60.80331039428711</v>
+        <v>60.54868316650391</v>
       </c>
       <c r="D18" t="n">
-        <v>65.91724395751953</v>
+        <v>64.31592559814453</v>
       </c>
     </row>
     <row r="19">
@@ -1329,13 +1259,13 @@
         <v>2005</v>
       </c>
       <c r="B19" t="n">
-        <v>64.35743713378906</v>
+        <v>62.60438919067383</v>
       </c>
       <c r="C19" t="n">
-        <v>61.36091613769531</v>
+        <v>60.37279891967773</v>
       </c>
       <c r="D19" t="n">
-        <v>67.35395812988281</v>
+        <v>64.83597564697266</v>
       </c>
     </row>
     <row r="20">
@@ -1343,13 +1273,13 @@
         <v>2006</v>
       </c>
       <c r="B20" t="n">
-        <v>63.59679412841797</v>
+        <v>63.28513336181641</v>
       </c>
       <c r="C20" t="n">
-        <v>62.09701156616211</v>
+        <v>61.26394271850586</v>
       </c>
       <c r="D20" t="n">
-        <v>65.09658050537109</v>
+        <v>65.30632781982422</v>
       </c>
     </row>
     <row r="21">
@@ -1357,13 +1287,13 @@
         <v>2007</v>
       </c>
       <c r="B21" t="n">
-        <v>64.16960906982422</v>
+        <v>62.79573440551758</v>
       </c>
       <c r="C21" t="n">
-        <v>61.65188598632812</v>
+        <v>60.71561813354492</v>
       </c>
       <c r="D21" t="n">
-        <v>66.68733215332031</v>
+        <v>64.87584686279297</v>
       </c>
     </row>
     <row r="22">
@@ -1371,13 +1301,13 @@
         <v>2008</v>
       </c>
       <c r="B22" t="n">
-        <v>63.58122634887695</v>
+        <v>63.16587066650391</v>
       </c>
       <c r="C22" t="n">
-        <v>61.47802734375</v>
+        <v>61.54932022094727</v>
       </c>
       <c r="D22" t="n">
-        <v>65.68442535400391</v>
+        <v>64.78241729736328</v>
       </c>
     </row>
     <row r="23">
@@ -1385,13 +1315,13 @@
         <v>2009</v>
       </c>
       <c r="B23" t="n">
-        <v>63.93760299682617</v>
+        <v>62.69874954223633</v>
       </c>
       <c r="C23" t="n">
-        <v>62.26960754394531</v>
+        <v>61.06539154052734</v>
       </c>
       <c r="D23" t="n">
-        <v>65.60559844970703</v>
+        <v>64.33210754394531</v>
       </c>
     </row>
     <row r="24">
@@ -1399,13 +1329,13 @@
         <v>2010</v>
       </c>
       <c r="B24" t="n">
-        <v>64.41257476806641</v>
+        <v>62.73128509521484</v>
       </c>
       <c r="C24" t="n">
-        <v>61.08554077148438</v>
+        <v>61.40924072265625</v>
       </c>
       <c r="D24" t="n">
-        <v>67.73960876464844</v>
+        <v>64.05332946777344</v>
       </c>
     </row>
     <row r="25">
@@ -1413,13 +1343,13 @@
         <v>2011</v>
       </c>
       <c r="B25" t="n">
-        <v>63.1952018737793</v>
+        <v>62.92404174804688</v>
       </c>
       <c r="C25" t="n">
-        <v>59.77997970581055</v>
+        <v>60.53540420532227</v>
       </c>
       <c r="D25" t="n">
-        <v>66.61042022705078</v>
+        <v>65.31268310546875</v>
       </c>
     </row>
     <row r="26">
@@ -1427,13 +1357,13 @@
         <v>2012</v>
       </c>
       <c r="B26" t="n">
-        <v>63.39833450317383</v>
+        <v>62.67998504638672</v>
       </c>
       <c r="C26" t="n">
-        <v>61.38560104370117</v>
+        <v>61.13978576660156</v>
       </c>
       <c r="D26" t="n">
-        <v>65.41106414794922</v>
+        <v>64.22018432617188</v>
       </c>
     </row>
     <row r="27">
@@ -1441,13 +1371,13 @@
         <v>2013</v>
       </c>
       <c r="B27" t="n">
-        <v>63.58148193359375</v>
+        <v>62.70781326293945</v>
       </c>
       <c r="C27" t="n">
-        <v>60.09978866577148</v>
+        <v>61.16823577880859</v>
       </c>
       <c r="D27" t="n">
-        <v>67.06317901611328</v>
+        <v>64.24739074707031</v>
       </c>
     </row>
     <row r="28">
@@ -1455,13 +1385,13 @@
         <v>2014</v>
       </c>
       <c r="B28" t="n">
-        <v>63.76467132568359</v>
+        <v>62.9072265625</v>
       </c>
       <c r="C28" t="n">
-        <v>61.17314529418945</v>
+        <v>60.69808959960938</v>
       </c>
       <c r="D28" t="n">
-        <v>66.35619354248047</v>
+        <v>65.11636352539062</v>
       </c>
     </row>
     <row r="29">
@@ -1469,13 +1399,13 @@
         <v>2015</v>
       </c>
       <c r="B29" t="n">
-        <v>63.87203216552734</v>
+        <v>63.07479095458984</v>
       </c>
       <c r="C29" t="n">
-        <v>60.76379776000977</v>
+        <v>61.41233825683594</v>
       </c>
       <c r="D29" t="n">
-        <v>66.98027038574219</v>
+        <v>64.73724365234375</v>
       </c>
     </row>
     <row r="30">
@@ -1483,13 +1413,13 @@
         <v>2016</v>
       </c>
       <c r="B30" t="n">
-        <v>64.10443878173828</v>
+        <v>62.5872802734375</v>
       </c>
       <c r="C30" t="n">
-        <v>62.67333221435547</v>
+        <v>61.44625854492188</v>
       </c>
       <c r="D30" t="n">
-        <v>65.53554534912109</v>
+        <v>63.72830200195312</v>
       </c>
     </row>
     <row r="31">
@@ -1497,13 +1427,13 @@
         <v>2017</v>
       </c>
       <c r="B31" t="n">
-        <v>64.72441101074219</v>
+        <v>62.8348388671875</v>
       </c>
       <c r="C31" t="n">
-        <v>62.48033905029297</v>
+        <v>61.1059455871582</v>
       </c>
       <c r="D31" t="n">
-        <v>66.96848297119141</v>
+        <v>64.56373596191406</v>
       </c>
     </row>
     <row r="32">
@@ -1511,13 +1441,13 @@
         <v>2018</v>
       </c>
       <c r="B32" t="n">
-        <v>62.89873123168945</v>
+        <v>62.34214401245117</v>
       </c>
       <c r="C32" t="n">
-        <v>60.38057708740234</v>
+        <v>60.93957138061523</v>
       </c>
       <c r="D32" t="n">
-        <v>65.41688537597656</v>
+        <v>63.74471664428711</v>
       </c>
     </row>
     <row r="33">
@@ -1525,13 +1455,13 @@
         <v>2019</v>
       </c>
       <c r="B33" t="n">
-        <v>63.8541259765625</v>
+        <v>63.06940460205078</v>
       </c>
       <c r="C33" t="n">
-        <v>61.91201019287109</v>
+        <v>61.25491333007812</v>
       </c>
       <c r="D33" t="n">
-        <v>65.79624176025391</v>
+        <v>64.88389587402344</v>
       </c>
     </row>
     <row r="34">
@@ -1539,13 +1469,13 @@
         <v>2020</v>
       </c>
       <c r="B34" t="n">
-        <v>63.50642013549805</v>
+        <v>62.61249923706055</v>
       </c>
       <c r="C34" t="n">
-        <v>61.50664138793945</v>
+        <v>61.49328994750977</v>
       </c>
       <c r="D34" t="n">
-        <v>65.50619506835938</v>
+        <v>63.73170852661133</v>
       </c>
     </row>
     <row r="35">
@@ -1553,13 +1483,13 @@
         <v>2021</v>
       </c>
       <c r="B35" t="n">
-        <v>63.04742431640625</v>
+        <v>62.90659713745117</v>
       </c>
       <c r="C35" t="n">
-        <v>61.63446426391602</v>
+        <v>61.40680694580078</v>
       </c>
       <c r="D35" t="n">
-        <v>64.46038818359375</v>
+        <v>64.40638732910156</v>
       </c>
     </row>
   </sheetData>
@@ -1608,13 +1538,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>62.73128776550293</v>
+        <v>60.02802429199219</v>
       </c>
       <c r="C2" t="n">
-        <v>60.85275840761988</v>
+        <v>58.73065840078731</v>
       </c>
       <c r="D2" t="n">
-        <v>64.60981712338597</v>
+        <v>61.32539018319707</v>
       </c>
     </row>
     <row r="3">
@@ -1622,13 +1552,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>64.70835609436035</v>
+        <v>62.53197479248047</v>
       </c>
       <c r="C3" t="n">
-        <v>63.48771876270193</v>
+        <v>60.80601132666596</v>
       </c>
       <c r="D3" t="n">
-        <v>65.92899342601878</v>
+        <v>64.25793825829498</v>
       </c>
     </row>
     <row r="4">
@@ -1636,13 +1566,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>66.66549911499024</v>
+        <v>65.62266540527344</v>
       </c>
       <c r="C4" t="n">
-        <v>64.25464638551826</v>
+        <v>64.21807050254657</v>
       </c>
       <c r="D4" t="n">
-        <v>69.07635184446222</v>
+        <v>67.02726030800031</v>
       </c>
     </row>
     <row r="5">
@@ -1650,13 +1580,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>62.90066261291504</v>
+        <v>65.64969253540039</v>
       </c>
       <c r="C5" t="n">
-        <v>61.80118155543121</v>
+        <v>62.97380107773114</v>
       </c>
       <c r="D5" t="n">
-        <v>64.00014367039888</v>
+        <v>68.32558399306964</v>
       </c>
     </row>
     <row r="6">
@@ -1664,13 +1594,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>63.95075988769531</v>
+        <v>63.76452140808105</v>
       </c>
       <c r="C6" t="n">
-        <v>61.77395323312223</v>
+        <v>62.06159589416831</v>
       </c>
       <c r="D6" t="n">
-        <v>66.1275665422684</v>
+        <v>65.4674469219938</v>
       </c>
     </row>
   </sheetData>
